--- a/資訊_暫存/一頁式網頁/一頁式網站放置統整.xlsx
+++ b/資訊_暫存/一頁式網頁/一頁式網站放置統整.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bknas1\平台\資訊_暫存\一頁式網頁\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bkrnetwork\資訊_暫存\一頁式網頁\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEAF775-72C2-4CB6-9EC8-660F42B83DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一頁式網站必要資訊-內網" sheetId="1" r:id="rId1"/>
@@ -36,8 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -938,7 +937,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1350,7 +1349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1477,6 +1476,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1895,23 +1897,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="110" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.09765625" style="7"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>86</v>
       </c>
@@ -1925,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>89</v>
       </c>
@@ -1939,7 +1941,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>89</v>
       </c>
@@ -1953,7 +1955,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>89</v>
       </c>
@@ -1967,7 +1969,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>89</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>89</v>
       </c>
@@ -1989,7 +1991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>89</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>89</v>
       </c>
@@ -2017,7 +2019,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>89</v>
       </c>
@@ -2031,7 +2033,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>89</v>
       </c>
@@ -2045,7 +2047,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>89</v>
       </c>
@@ -2056,7 +2058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>89</v>
       </c>
@@ -2070,7 +2072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>89</v>
       </c>
@@ -2084,7 +2086,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>89</v>
       </c>
@@ -2098,7 +2100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>89</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>89</v>
       </c>
@@ -2124,7 +2126,7 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>89</v>
       </c>
@@ -2138,7 +2140,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>89</v>
       </c>
@@ -2152,7 +2154,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>87</v>
       </c>
@@ -2166,7 +2168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>87</v>
       </c>
@@ -2180,7 +2182,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>87</v>
       </c>
@@ -2194,7 +2196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>87</v>
       </c>
@@ -2208,7 +2210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>87</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>87</v>
       </c>
@@ -2236,7 +2238,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>87</v>
       </c>
@@ -2248,7 +2250,7 @@
       </c>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>87</v>
       </c>
@@ -2260,7 +2262,7 @@
       </c>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>87</v>
       </c>
@@ -2274,7 +2276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>87</v>
       </c>
@@ -2284,11 +2286,11 @@
       <c r="C28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="65" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>87</v>
       </c>
@@ -2302,7 +2304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>87</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>87</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>87</v>
       </c>
@@ -2341,7 +2343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>87</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>87</v>
       </c>
@@ -2366,7 +2368,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>87</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>87</v>
       </c>
@@ -2391,7 +2393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>87</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>87</v>
       </c>
@@ -2419,7 +2421,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>87</v>
       </c>
@@ -2432,47 +2434,47 @@
       <c r="D39" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D26">
-    <sortState ref="A2:D39">
+  <autoFilter ref="A1:D26" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
       <sortCondition ref="A1:A26"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" location="'郵務-期望給使用者填入'!A1" display="詳細資訊：期望必填資料"/>
-    <hyperlink ref="D20" r:id="rId1"/>
-    <hyperlink ref="D19" r:id="rId2"/>
-    <hyperlink ref="D29" r:id="rId3"/>
-    <hyperlink ref="D30" r:id="rId4"/>
-    <hyperlink ref="D21" r:id="rId5"/>
-    <hyperlink ref="D22" r:id="rId6"/>
-    <hyperlink ref="D23" r:id="rId7"/>
-    <hyperlink ref="D24" r:id="rId8"/>
-    <hyperlink ref="D27" r:id="rId9"/>
-    <hyperlink ref="D37" r:id="rId10"/>
-    <hyperlink ref="D3" r:id="rId11"/>
-    <hyperlink ref="D2" r:id="rId12"/>
-    <hyperlink ref="D38" r:id="rId13"/>
-    <hyperlink ref="D31" r:id="rId14"/>
-    <hyperlink ref="D34" r:id="rId15"/>
-    <hyperlink ref="D35" r:id="rId16"/>
-    <hyperlink ref="D12" r:id="rId17"/>
-    <hyperlink ref="D13" r:id="rId18"/>
-    <hyperlink ref="D10" r:id="rId19"/>
-    <hyperlink ref="D14" r:id="rId20"/>
-    <hyperlink ref="D7" r:id="rId21"/>
-    <hyperlink ref="D9" r:id="rId22"/>
-    <hyperlink ref="D8" r:id="rId23"/>
-    <hyperlink ref="D17" r:id="rId24"/>
-    <hyperlink ref="D15" r:id="rId25"/>
-    <hyperlink ref="D18" r:id="rId26"/>
+    <hyperlink ref="D4" location="'郵務-期望給使用者填入'!A1" display="詳細資訊：期望必填資料" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D29" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D30" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D37" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D38" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D31" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D34" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D35" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D9" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -2482,15 +2484,15 @@
       <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.69921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.59765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.09765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.09765625" style="12"/>
+    <col min="1" max="1" width="48.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>97</v>
       </c>
@@ -2508,7 +2510,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>96</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>98</v>
       </c>
@@ -2544,7 +2546,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -2561,7 +2563,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>126</v>
       </c>
@@ -2576,7 +2578,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>101</v>
       </c>
@@ -2594,7 +2596,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>106</v>
       </c>
@@ -2612,7 +2614,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>107</v>
       </c>
@@ -2630,7 +2632,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>108</v>
       </c>
@@ -2648,13 +2650,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>134</v>
       </c>
@@ -2663,7 +2665,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>133</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>99</v>
       </c>
@@ -2689,7 +2691,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>132</v>
       </c>
@@ -2706,7 +2708,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>123</v>
       </c>
@@ -2715,7 +2717,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>109</v>
       </c>
@@ -2732,7 +2734,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="108.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>125</v>
       </c>
@@ -2749,7 +2751,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>119</v>
       </c>
@@ -2760,7 +2762,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>120</v>
       </c>
@@ -2769,7 +2771,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>50</v>
       </c>
@@ -2777,13 +2779,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>156</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>135</v>
       </c>
@@ -2812,7 +2814,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>138</v>
       </c>
@@ -2826,7 +2828,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>139</v>
       </c>
@@ -2840,7 +2842,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>143</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>145</v>
       </c>
@@ -2865,7 +2867,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>146</v>
       </c>
@@ -2882,7 +2884,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>146</v>
       </c>
@@ -2893,7 +2895,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>146</v>
       </c>
@@ -2904,7 +2906,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>146</v>
       </c>
@@ -2918,27 +2920,27 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:2" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="25" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="2:2" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F31"/>
+  <autoFilter ref="A1:F31" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -2948,15 +2950,15 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.69921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.09765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.09765625" style="12"/>
+    <col min="1" max="1" width="48.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>159</v>
       </c>
@@ -2967,7 +2969,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>96</v>
       </c>
@@ -2979,7 +2981,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>126</v>
       </c>
@@ -2991,7 +2993,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>106</v>
       </c>
@@ -3003,7 +3005,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>108</v>
       </c>
@@ -3015,7 +3017,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>122</v>
       </c>
@@ -3027,7 +3029,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>156</v>
       </c>
@@ -3039,7 +3041,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>158</v>
       </c>
@@ -3053,7 +3055,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
       <c r="B9" s="22" t="s">
         <v>161</v>
@@ -3065,7 +3067,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
       <c r="B10" s="22" t="s">
         <v>162</v>
@@ -3077,7 +3079,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
       <c r="B11" s="22" t="s">
         <v>170</v>
@@ -3086,7 +3088,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="63"/>
       <c r="B12" s="22" t="s">
         <v>177</v>
@@ -3095,7 +3097,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>171</v>
       </c>
@@ -3106,7 +3108,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="63"/>
       <c r="B14" s="22" t="s">
         <v>164</v>
@@ -3115,7 +3117,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>172</v>
       </c>
@@ -3126,7 +3128,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="22" t="s">
         <v>166</v>
@@ -3135,7 +3137,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="63"/>
       <c r="B17" s="26" t="s">
         <v>167</v>
@@ -3144,7 +3146,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>173</v>
       </c>
@@ -3155,7 +3157,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64"/>
       <c r="B19" s="24" t="s">
         <v>169</v>
@@ -3164,8 +3166,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
         <v>178</v>
       </c>
@@ -3183,27 +3185,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.09765625" style="1"/>
+    <col min="1" max="1" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>194</v>
       </c>
@@ -3211,7 +3213,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>186</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>187</v>
       </c>
@@ -3227,7 +3229,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>188</v>
       </c>
@@ -3235,7 +3237,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>189</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -3251,7 +3253,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3259,7 +3261,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>12</v>
       </c>
@@ -3267,7 +3269,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>179</v>
       </c>
@@ -3275,8 +3277,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -3291,38 +3293,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.09765625" style="1"/>
+    <col min="5" max="5" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
     </row>
-    <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>182</v>
       </c>
@@ -3330,8 +3332,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>184</v>
       </c>
@@ -3339,29 +3341,29 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
     </row>
-    <row r="7" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>197</v>
       </c>
       <c r="B7" s="30"/>
     </row>
-    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="51" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>190</v>
       </c>
       <c r="B9" s="30"/>
     </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>27</v>
       </c>
@@ -3387,7 +3389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
@@ -3397,7 +3399,7 @@
       <c r="G11" s="38"/>
       <c r="H11" s="39"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -3407,7 +3409,7 @@
       <c r="G12" s="41"/>
       <c r="H12" s="42"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -3417,7 +3419,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="45"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -3427,7 +3429,7 @@
       <c r="G14" s="44"/>
       <c r="H14" s="45"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -3437,7 +3439,7 @@
       <c r="G15" s="44"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -3447,7 +3449,7 @@
       <c r="G16" s="44"/>
       <c r="H16" s="45"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -3457,7 +3459,7 @@
       <c r="G17" s="44"/>
       <c r="H17" s="45"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -3467,7 +3469,7 @@
       <c r="G18" s="44"/>
       <c r="H18" s="45"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -3477,7 +3479,7 @@
       <c r="G19" s="44"/>
       <c r="H19" s="45"/>
     </row>
-    <row r="20" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="46"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
@@ -3487,8 +3489,8 @@
       <c r="G20" s="47"/>
       <c r="H20" s="48"/>
     </row>
-    <row r="21" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -3504,22 +3506,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -3534,7 +3536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -3549,7 +3551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -3571,27 +3573,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.09765625" style="1"/>
+    <col min="1" max="1" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>202</v>
       </c>
@@ -3599,7 +3601,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>204</v>
       </c>
@@ -3607,7 +3609,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>205</v>
       </c>
@@ -3615,7 +3617,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>207</v>
       </c>
@@ -3623,8 +3625,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="58" t="s">
         <v>206</v>
       </c>
